--- a/Configs/Building.xlsx
+++ b/Configs/Building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56722BA-E86F-4E57-AAD8-BE7BB8D6C7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4A3872-9519-48EC-91BB-54866786BEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,30 @@
   </si>
   <si>
     <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -668,13 +692,13 @@
     <col min="4" max="5" width="10.9296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.46484375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.06640625" style="1"/>
+    <col min="8" max="9" width="14.3984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.46484375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,16 +724,19 @@
         <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,16 +762,19 @@
         <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,25 +791,28 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>20001</v>
       </c>
@@ -805,16 +838,19 @@
         <v>43</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>20002</v>
       </c>
@@ -840,16 +876,19 @@
         <v>43</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>20003</v>
       </c>
@@ -875,16 +914,19 @@
         <v>38</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6">
+      <c r="K6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>20004</v>
       </c>
@@ -910,16 +952,19 @@
         <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7">
+      <c r="K7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -948,13 +993,16 @@
         <v>33</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -983,16 +1031,24 @@
         <v>33</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="K10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L10">
         <v>0</v>
       </c>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Configs/Building.xlsx
+++ b/Configs/Building.xlsx
@@ -1,44 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4A3872-9519-48EC-91BB-54866786BEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jimmy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A917E4BC-1422-43DB-B10F-CA8C03BAE129}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jimmy:</t>
@@ -46,9 +46,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -59,15 +57,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{CFC9AE84-09FF-4C0C-9B9F-E34E3932C2A8}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jimmy:</t>
@@ -75,9 +71,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -87,15 +81,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{22A55358-6346-4922-81BD-8587810F75DB}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jimmy:</t>
@@ -103,9 +95,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -118,272 +108,546 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑名</t>
+  </si>
+  <si>
+    <t>建筑描述</t>
+  </si>
+  <si>
+    <t>建筑类型</t>
+  </si>
+  <si>
+    <t>占格</t>
+  </si>
+  <si>
+    <t>材料ID列表</t>
+  </si>
+  <si>
+    <t>材料数量列表</t>
+  </si>
+  <si>
+    <t>建造时长</t>
+  </si>
+  <si>
+    <t>仓库容量</t>
+  </si>
+  <si>
+    <t>配方列表</t>
+  </si>
+  <si>
+    <t>照亮格数</t>
+  </si>
+  <si>
+    <t>图片路径</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>materialIDGroup</t>
+  </si>
+  <si>
+    <t>materialAmountGroup</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>recipes</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>木箱</t>
+  </si>
+  <si>
+    <t>可以放一点东西</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10001,10002</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>食物放进去不会失去耐久度</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>灶台</t>
+  </si>
+  <si>
+    <t>可以搞各类炒菜的地方</t>
+  </si>
+  <si>
+    <t>2000301,2000302</t>
   </si>
   <si>
     <t>工具台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可以生产工具的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灶台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以搞各类炒菜的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以放一点东西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食物放进去不会失去耐久度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,10002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配方列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>materialIDGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>materialAmountGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recipes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料数量列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料ID列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2000401,2000402</t>
   </si>
   <si>
     <t>20005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜡烛台</t>
+  </si>
+  <si>
+    <t>点亮周围3格</t>
   </si>
   <si>
     <t>20006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜡烛台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>超级大电灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点亮周围3格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>点亮周围20格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>照亮格数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000301,2000302</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000401,2000402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库容量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>capacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -391,25 +655,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -458,7 +1008,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -493,7 +1043,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -667,393 +1217,388 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.19921875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.9296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.3984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.46484375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="9.06481481481481" style="1"/>
+    <col min="2" max="2" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.2037037037037" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.9259259259259" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6018518518519" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.3981481481481" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.3981481481481" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7962962962963" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.462962962963" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.06481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>20001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>20002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>20003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>20004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="12:12">
       <c r="L10">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="7:9">
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Configs/Building.xlsx
+++ b/Configs/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8C8B88-5670-4D7B-8AAD-CC169A8F6F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F85118-CBFF-49D3-B275-23C952B23EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="285" windowWidth="28815" windowHeight="12173" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2228" yWindow="1943" windowWidth="20107" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
   <si>
     <t>id</t>
   </si>
@@ -757,13 +757,32 @@
       <t>001101,2001102,20011003</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力值消耗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>energyCost</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -791,6 +810,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1096,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1116,7 +1142,7 @@
     <col min="12" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,11 +1176,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1188,11 +1217,14 @@
       <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,11 +1258,14 @@
       <c r="K3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>20001</v>
       </c>
@@ -1264,12 +1299,15 @@
       <c r="K4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L4" t="str">
+      <c r="L4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" t="str">
         <f>"Building\"&amp;A4</f>
         <v>Building\20001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>20002</v>
       </c>
@@ -1303,12 +1341,15 @@
       <c r="K5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L5" t="str">
-        <f t="shared" ref="L5:L17" si="0">"Building\"&amp;A5</f>
+      <c r="L5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" ref="M5:M17" si="0">"Building\"&amp;A5</f>
         <v>Building\20002</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>20003</v>
       </c>
@@ -1342,12 +1383,15 @@
       <c r="K6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L6" t="str">
+      <c r="L6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" t="str">
         <f t="shared" si="0"/>
         <v>Building\20003</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>20004</v>
       </c>
@@ -1381,12 +1425,15 @@
       <c r="K7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L7" t="str">
+      <c r="L7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="str">
         <f t="shared" si="0"/>
         <v>Building\20004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>20005</v>
       </c>
@@ -1420,12 +1467,15 @@
       <c r="K8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L8" t="str">
+      <c r="L8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="str">
         <f t="shared" si="0"/>
         <v>Building\20005</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>20006</v>
       </c>
@@ -1459,12 +1509,15 @@
       <c r="K9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" t="str">
         <f t="shared" si="0"/>
         <v>Building\20006</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>20007</v>
       </c>
@@ -1498,12 +1551,15 @@
       <c r="K10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L10" t="str">
+      <c r="L10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" t="str">
         <f t="shared" si="0"/>
         <v>Building\20007</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>20008</v>
       </c>
@@ -1537,12 +1593,15 @@
       <c r="K11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" t="str">
         <f>"Building\"&amp;A11</f>
         <v>Building\20008</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>20009</v>
       </c>
@@ -1576,12 +1635,15 @@
       <c r="K12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" t="str">
         <f t="shared" si="0"/>
         <v>Building\20009</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>20010</v>
       </c>
@@ -1615,12 +1677,15 @@
       <c r="K13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" t="str">
         <f t="shared" si="0"/>
         <v>Building\20010</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>20011</v>
       </c>
@@ -1654,12 +1719,15 @@
       <c r="K14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L14" t="str">
+      <c r="L14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" t="str">
         <f t="shared" si="0"/>
         <v>Building\20011</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>20012</v>
       </c>
@@ -1693,12 +1761,15 @@
       <c r="K15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L15" t="str">
+      <c r="L15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" t="str">
         <f t="shared" si="0"/>
         <v>Building\20012</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>20013</v>
       </c>
@@ -1732,12 +1803,15 @@
       <c r="K16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L16" t="str">
+      <c r="L16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" t="str">
         <f t="shared" si="0"/>
         <v>Building\20013</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>20014</v>
       </c>
@@ -1771,12 +1845,15 @@
       <c r="K17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L17" t="str">
+      <c r="L17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" t="str">
         <f t="shared" si="0"/>
         <v>Building\20014</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>

--- a/Configs/Building.xlsx
+++ b/Configs/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F85118-CBFF-49D3-B275-23C952B23EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8E0477-B426-4D13-8542-6DD92BEFB306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2228" yWindow="1943" windowWidth="20107" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4822" yWindow="1553" windowWidth="20108" windowHeight="13709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="100">
   <si>
     <t>id</t>
   </si>
@@ -776,6 +776,26 @@
   <si>
     <t>20</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20015</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20016</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>床</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计台</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1124,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1345,7 +1365,7 @@
         <v>94</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ref="M5:M17" si="0">"Building\"&amp;A5</f>
+        <f t="shared" ref="M5:M19" si="0">"Building\"&amp;A5</f>
         <v>Building\20002</v>
       </c>
     </row>
@@ -1851,6 +1871,42 @@
       <c r="M17" t="str">
         <f t="shared" si="0"/>
         <v>Building\20014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v>Building\20015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v>Building\20016</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">

--- a/Configs/Building.xlsx
+++ b/Configs/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8E0477-B426-4D13-8542-6DD92BEFB306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9F3065-D5AC-4072-AB2E-A24DE7CCFE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4822" yWindow="1553" windowWidth="20108" windowHeight="13709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19340" yWindow="4400" windowWidth="18940" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jimmy:</t>
@@ -40,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -57,6 +59,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jimmy:</t>
@@ -65,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -81,6 +85,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jimmy:</t>
@@ -89,6 +94,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -101,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="106">
   <si>
     <t>id</t>
   </si>
@@ -298,6 +304,158 @@
   </si>
   <si>
     <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0002,10003,10001</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1,1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004,10001,10002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0001</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0002,10006</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0003,10005</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0007,10004,10006</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>2</t>
     </r>
     <r>
@@ -309,54 +467,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,3</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,4</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
+      <t>,2,2</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -372,7 +484,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0002,10003,10001</t>
+      <t>0007,10008,10006</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -389,12 +501,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,1,1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10004,10001,10002</t>
+      <t>0008,10006</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -410,7 +518,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0001</t>
+      <t>,1</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -427,7 +535,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0002,10006</t>
+      <t>0008,10017,10003</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -444,7 +552,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,2</t>
+      <t>,1,2</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -461,7 +569,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0003,10005</t>
+      <t>0016,10005</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -478,24 +586,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0007,10004,10006</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,2,2</t>
+      <t>0010,10009,10008</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -512,7 +603,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0007,10008,10006</t>
+      <t>0009,10018</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -529,7 +620,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0008,10006</t>
+      <t>0011</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -546,143 +637,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0008,10017,10003</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1,2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0016,10005</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0010,10009,10008</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0009,10018</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0011</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>0009,10005</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000101,2000102,2000103,2000104,2000105</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -771,30 +726,132 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>20015</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20016</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>床</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计台</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000101,2000102,2000103,2000104,2000105,2000106,2000107</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>20015</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20016</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>床</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计台</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000401,2000402,2000403,2000404,2000405</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000801,2000802,2000803,2000804,2000805</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -814,16 +871,19 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1144,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1197,7 +1257,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
@@ -1238,7 +1298,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -1279,7 +1339,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s">
         <v>23</v>
@@ -1302,10 +1362,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>57</v>
@@ -1314,13 +1374,13 @@
         <v>55</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>94</v>
+      <c r="L4" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="M4" t="str">
         <f>"Building\"&amp;A4</f>
@@ -1344,10 +1404,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>57</v>
@@ -1356,13 +1416,13 @@
         <v>55</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>94</v>
+      <c r="L5" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" ref="M5:M19" si="0">"Building\"&amp;A5</f>
@@ -1386,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>56</v>
@@ -1395,7 +1455,7 @@
         <v>57</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>55</v>
@@ -1403,8 +1463,8 @@
       <c r="K6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>93</v>
+      <c r="L6" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
@@ -1428,10 +1488,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>57</v>
@@ -1440,13 +1500,13 @@
         <v>55</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>93</v>
+      <c r="L7" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
@@ -1470,10 +1530,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>57</v>
@@ -1485,10 +1545,10 @@
         <v>55</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>93</v>
+        <v>60</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
@@ -1512,10 +1572,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>57</v>
@@ -1524,13 +1584,13 @@
         <v>55</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>93</v>
+      <c r="L9" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
@@ -1554,10 +1614,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>57</v>
@@ -1566,13 +1626,13 @@
         <v>55</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>93</v>
+      <c r="L10" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
@@ -1596,10 +1656,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>57</v>
@@ -1608,13 +1668,13 @@
         <v>55</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>93</v>
+      <c r="L11" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="M11" t="str">
         <f>"Building\"&amp;A11</f>
@@ -1638,10 +1698,10 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>57</v>
@@ -1650,13 +1710,13 @@
         <v>55</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>93</v>
+      <c r="L12" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
@@ -1680,10 +1740,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>57</v>
@@ -1695,10 +1755,10 @@
         <v>55</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
@@ -1722,10 +1782,10 @@
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>57</v>
@@ -1734,13 +1794,13 @@
         <v>55</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>93</v>
+      <c r="L14" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
@@ -1764,16 +1824,16 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>57</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>55</v>
@@ -1781,8 +1841,8 @@
       <c r="K15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>93</v>
+      <c r="L15" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="0"/>
@@ -1806,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>57</v>
@@ -1815,7 +1875,7 @@
         <v>57</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>55</v>
@@ -1823,8 +1883,8 @@
       <c r="K16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>93</v>
+      <c r="L16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="0"/>
@@ -1848,10 +1908,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>57</v>
@@ -1863,10 +1923,10 @@
         <v>55</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>93</v>
+        <v>62</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="0"/>
@@ -1875,16 +1935,16 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="0"/>
@@ -1893,16 +1953,16 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="0"/>

--- a/Configs/Building.xlsx
+++ b/Configs/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9F3065-D5AC-4072-AB2E-A24DE7CCFE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19315877-C6D9-4972-A230-13775FAA9384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19340" yWindow="4400" windowWidth="18940" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="1155" windowWidth="24308" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="109">
   <si>
     <t>id</t>
   </si>
@@ -232,46 +232,7 @@
     <t>电灯</t>
   </si>
   <si>
-    <t>用石头和木头堆成的火堆</t>
-  </si>
-  <si>
-    <t>用木板和锋利铁片简单搭成的制作台</t>
-  </si>
-  <si>
-    <t>就木箱</t>
-  </si>
-  <si>
-    <t>用石头简单搭起来的加热食物的地方</t>
-  </si>
-  <si>
-    <t>手搓的小蜡烛，有小范围照明能力</t>
-  </si>
-  <si>
     <t>将废铁炼化成铁锭的熔炉</t>
-  </si>
-  <si>
-    <t>能够利用铁锭进行锻造的铁砧</t>
-  </si>
-  <si>
-    <t>有明显锅具形状的，能够进行长时间炖煮的器具</t>
-  </si>
-  <si>
-    <t>就缝纫机</t>
-  </si>
-  <si>
-    <t>用一瓶油和烛芯做成的简单油灯，有中等照明范围</t>
-  </si>
-  <si>
-    <t>利用电能进行切割/拼接的更高等级的工具台，能看到电路和大型工具的元素</t>
-  </si>
-  <si>
-    <t>小型冰箱</t>
-  </si>
-  <si>
-    <t>比木箱更坚固更大的箱子（能看到钉子之类的）</t>
-  </si>
-  <si>
-    <t>用电的照明设备，有最大的照明范围</t>
   </si>
   <si>
     <t>0</t>
@@ -852,6 +813,70 @@
   </si>
   <si>
     <t>4,4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>木头做成的箱子，东西放在这里面至少能感到心安</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以制造大量手持工具的制作台</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用石头和木头堆成的火堆，可以用来烤制食物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级烹饪工具，可以烹饪一些简单的小菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手搓的小蜡烛，有小范围照明能力（不过照明系统没来得及做嘻嘻）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够利用铁锭锻造出高级工具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够进行长时间炖煮的器具，可以烹饪高级料理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以缝制一些衣物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用一瓶油和烛芯做成的简单油灯，有中等照明范围（不过照明系统没来得及做嘻嘻）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用电能进行切割/拼接的高级工具台，能制作高级材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型冰箱，能够延长食物的保质期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>比木箱更大更坚固的箱子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用电的照明设备，有最大的照明范围（不过照明系统没来得及做嘻嘻）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconPath</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1202,17 +1227,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="1"/>
     <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.3984375" style="1" customWidth="1"/>
     <col min="4" max="5" width="10.9296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.265625" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.3984375" style="1" customWidth="1"/>
@@ -1222,7 +1247,7 @@
     <col min="12" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,13 +1282,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1298,13 +1326,16 @@
         <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1327,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>26</v>
@@ -1339,13 +1370,16 @@
         <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M3" t="s">
         <v>23</v>
       </c>
+      <c r="N3" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>20001</v>
       </c>
@@ -1353,41 +1387,45 @@
         <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M4" t="str">
         <f>"Building\"&amp;A4</f>
         <v>Building\20001</v>
       </c>
+      <c r="N4" t="str">
+        <f>"Icon\Building\"&amp;A4</f>
+        <v>Icon\Building\20001</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>20002</v>
       </c>
@@ -1395,41 +1433,45 @@
         <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" ref="M5:M19" si="0">"Building\"&amp;A5</f>
         <v>Building\20002</v>
       </c>
+      <c r="N5" t="str">
+        <f t="shared" ref="N5:N19" si="1">"Icon\Building\"&amp;A5</f>
+        <v>Icon\Building\20002</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>20003</v>
       </c>
@@ -1437,41 +1479,45 @@
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
         <v>Building\20003</v>
       </c>
+      <c r="N6" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon\Building\20003</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>20004</v>
       </c>
@@ -1479,41 +1525,45 @@
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
         <v>Building\20004</v>
       </c>
+      <c r="N7" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon\Building\20004</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>20005</v>
       </c>
@@ -1521,41 +1571,45 @@
         <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
         <v>Building\20005</v>
       </c>
+      <c r="N8" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon\Building\20005</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>20006</v>
       </c>
@@ -1563,41 +1617,45 @@
         <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="K9" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
         <v>Building\20006</v>
       </c>
+      <c r="N9" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon\Building\20006</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>20007</v>
       </c>
@@ -1605,41 +1663,45 @@
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
         <v>Building\20007</v>
       </c>
+      <c r="N10" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon\Building\20007</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>20008</v>
       </c>
@@ -1647,41 +1709,45 @@
         <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M11" t="str">
         <f>"Building\"&amp;A11</f>
         <v>Building\20008</v>
       </c>
+      <c r="N11" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon\Building\20008</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>20009</v>
       </c>
@@ -1689,41 +1755,45 @@
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
         <v>Building\20009</v>
       </c>
+      <c r="N12" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon\Building\20009</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>20010</v>
       </c>
@@ -1731,41 +1801,45 @@
         <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
         <v>Building\20010</v>
       </c>
+      <c r="N13" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon\Building\20010</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>20011</v>
       </c>
@@ -1773,41 +1847,45 @@
         <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
         <v>Building\20011</v>
       </c>
+      <c r="N14" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon\Building\20011</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>20012</v>
       </c>
@@ -1815,41 +1893,45 @@
         <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="0"/>
         <v>Building\20012</v>
       </c>
+      <c r="N15" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon\Building\20012</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>20013</v>
       </c>
@@ -1857,41 +1939,45 @@
         <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="0"/>
         <v>Building\20013</v>
       </c>
+      <c r="N16" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon\Building\20013</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>20014</v>
       </c>
@@ -1899,77 +1985,89 @@
         <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="0"/>
         <v>Building\20014</v>
       </c>
+      <c r="N17" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon\Building\20014</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="0"/>
         <v>Building\20015</v>
       </c>
+      <c r="N18" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon\Building\20015</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="0"/>
         <v>Building\20016</v>
       </c>
+      <c r="N19" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon\Building\20016</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>

--- a/Configs/Building.xlsx
+++ b/Configs/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19315877-C6D9-4972-A230-13775FAA9384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8EAB88-642A-410A-AD40-B90459F583E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="1155" windowWidth="24308" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="1140" windowWidth="24308" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -832,10 +832,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>手搓的小蜡烛，有小范围照明能力（不过照明系统没来得及做嘻嘻）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>能够利用铁锭锻造出高级工具</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -848,10 +844,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>用一瓶油和烛芯做成的简单油灯，有中等照明范围（不过照明系统没来得及做嘻嘻）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>利用电能进行切割/拼接的高级工具台，能制作高级材料</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -864,10 +856,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>用电的照明设备，有最大的照明范围（不过照明系统没来得及做嘻嘻）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>icon路径</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -877,6 +865,18 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用电的照明设备，有最大的照明范围</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用一瓶油和烛芯做成的简单油灯，有中等照明范围</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手搓的小蜡烛，有小范围照明能力</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1229,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1288,7 +1288,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
@@ -1332,7 +1332,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -1376,7 +1376,7 @@
         <v>23</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -1571,7 +1571,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>43</v>
@@ -1663,7 +1663,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>44</v>
@@ -1709,7 +1709,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>44</v>
@@ -1755,7 +1755,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>44</v>
@@ -1801,7 +1801,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>43</v>
@@ -1847,7 +1847,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>44</v>
@@ -1893,7 +1893,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>42</v>
@@ -1939,7 +1939,7 @@
         <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>42</v>
@@ -1985,7 +1985,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>43</v>
